--- a/beta_vs_acceptance_ratio.xlsx
+++ b/beta_vs_acceptance_ratio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad\Documents\GitHub\mcmc-spde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C57C6BD-5590-4CD6-A167-7B98C693B959}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687369C0-E3F2-472B-93E7-3CCB5CDF698E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{DCA36136-20B9-42C7-B5BD-1477C9F64FB0}"/>
+    <workbookView xWindow="8235" yWindow="1875" windowWidth="28800" windowHeight="15885" xr2:uid="{DCA36136-20B9-42C7-B5BD-1477C9F64FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Centered</t>
+  </si>
+  <si>
+    <t>Non Centered - layer 1</t>
   </si>
 </sst>
 </file>
@@ -1731,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68331219-2E84-4265-9D7D-5931F0475C0A}">
-  <dimension ref="A2:G7"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,6 +1757,11 @@
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -1891,6 +1902,154 @@
         <v>99.92</v>
       </c>
       <c r="G7">
+        <v>99.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>B11/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D11">
+        <f>C11/10</f>
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11" si="1">D11/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="2">E11/10</f>
+        <v>1E-4</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11" si="3">F11/10</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>20.55</v>
+      </c>
+      <c r="C12">
+        <v>89.34</v>
+      </c>
+      <c r="D12">
+        <v>98.93</v>
+      </c>
+      <c r="E12">
+        <v>98.92</v>
+      </c>
+      <c r="F12">
+        <v>99.83</v>
+      </c>
+      <c r="G12">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>4.8</v>
+      </c>
+      <c r="C13">
+        <v>83.95</v>
+      </c>
+      <c r="D13">
+        <v>98.31</v>
+      </c>
+      <c r="E13">
+        <v>99.78</v>
+      </c>
+      <c r="F13">
+        <v>99.98</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.02</v>
+      </c>
+      <c r="C14">
+        <v>72.63</v>
+      </c>
+      <c r="D14">
+        <v>96.57</v>
+      </c>
+      <c r="E14">
+        <v>99.44</v>
+      </c>
+      <c r="F14">
+        <v>99.96</v>
+      </c>
+      <c r="G14">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>56.37</v>
+      </c>
+      <c r="D15">
+        <v>93.68</v>
+      </c>
+      <c r="E15">
+        <v>99.19</v>
+      </c>
+      <c r="F15">
+        <v>99.95</v>
+      </c>
+      <c r="G15">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>19.87</v>
+      </c>
+      <c r="D16">
+        <v>87.75</v>
+      </c>
+      <c r="E16">
+        <v>98.86</v>
+      </c>
+      <c r="F16">
+        <v>99.92</v>
+      </c>
+      <c r="G16">
         <v>99.97</v>
       </c>
     </row>
